--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D531A58-6E86-4938-B9BB-AFBB0119068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D02E86-E29C-43C2-81B6-681DB7570B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>pID</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>pilot cindy</t>
   </si>
 </sst>
 </file>
@@ -269,8 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -281,67 +284,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -552,6 +494,55 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -560,6 +551,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -567,18 +567,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -595,24 +598,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:O43" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:O43" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:O43" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,13 +1039,27 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D02E86-E29C-43C2-81B6-681DB7570B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330CC40-FAB3-4B0B-AD28-D9301CF16B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2760" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="input" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId1"/>
+    <sheet name="data_old" sheetId="1" r:id="rId2"/>
+    <sheet name="input" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>pID</t>
   </si>
@@ -40,9 +41,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>first_block</t>
-  </si>
-  <si>
     <t>control_random</t>
   </si>
   <si>
@@ -116,6 +114,60 @@
   </si>
   <si>
     <t>pilot cindy</t>
+  </si>
+  <si>
+    <t>anisha</t>
+  </si>
+  <si>
+    <t>first_language</t>
+  </si>
+  <si>
+    <t>englisch</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>first_block_old</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>item_baseline</t>
+  </si>
+  <si>
+    <t>text_baseline</t>
+  </si>
+  <si>
+    <t>item_passive</t>
+  </si>
+  <si>
+    <t>text_passive</t>
+  </si>
+  <si>
+    <t>item_agency</t>
+  </si>
+  <si>
+    <t>text_agency</t>
+  </si>
+  <si>
+    <t>cap_size</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>interview_trans</t>
+  </si>
+  <si>
+    <t>I chose to press the screen; I was using my free will</t>
+  </si>
+  <si>
+    <t>I had not choice; it wans't me</t>
+  </si>
+  <si>
+    <t>it happend sometimes, but sometimes not; I felt pretty much in controll;</t>
   </si>
 </sst>
 </file>
@@ -278,7 +330,348 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="40">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -598,24 +991,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:O43" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O43" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3781E842-391C-4515-9220-623679F29724}" name="Tabelle13" displayName="Tabelle13" ref="A1:P40" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:P40" xr:uid="{3781E842-391C-4515-9220-623679F29724}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{FCC9522A-6C94-43D7-83B4-03F95C940CDD}" name="pID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C390E5F0-49A4-4049-8E63-977FF8DD5583}" name="comments" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{7DE46A29-514D-4795-8A70-53BB141B9BD3}" name="vaild" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{4F80C496-9083-4346-857D-6273DDF84127}" name="cap_size" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A98F4A19-62CE-4A68-9E0B-9B9412578D3B}" name="age" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{B285662B-70D7-4412-9634-C655D2F6FAAF}" name="first_language" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D3079AF4-78C4-4424-BC52-D4BACE441CEF}" name="sex" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{13D4C27F-003A-4155-826E-39CB9D4765A6}" name="gender" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E51D2886-8623-4285-921B-205320B896AD}" name="item_baseline" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{FC411175-3DAA-407B-B025-10B0A0590C09}" name="text_baseline" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{72220960-232B-47EB-B2BB-CC5C3ED2C9E4}" name="item_passive" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{D97EE890-F9BD-4FDD-8ACF-33E745753FD9}" name="text_passive" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{27618442-AA2C-4E3B-AA9F-E5D93301C788}" name="item_agency" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{6353A30F-0F0F-43FC-84B7-22CDEAF8D9A8}" name="text_agency" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C93F8F74-28FE-457C-9F3D-537FED0ABB5B}" name="interview" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{897D179D-0D5A-4D7C-B1EC-7F9F27BB046A}" name="interview_trans" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <autoFilter ref="A1:P43" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{4DEC96F3-E8F3-4783-ABFE-497A2FF85D5D}" name="first_language" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block_old" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -883,183 +1302,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1067,9 +1454,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1084,9 +1472,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1101,9 +1490,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1118,9 +1508,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1135,9 +1526,10 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1152,9 +1544,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1169,9 +1562,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1186,9 +1580,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1203,9 +1598,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1220,9 +1616,10 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1237,9 +1634,10 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1254,9 +1652,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1271,9 +1670,10 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1288,9 +1688,10 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1305,9 +1706,10 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1322,9 +1724,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1339,9 +1742,10 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1356,9 +1760,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1373,9 +1778,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1390,9 +1796,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1407,9 +1814,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1424,9 +1832,10 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1441,9 +1850,10 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1458,9 +1868,10 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1475,9 +1886,10 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1492,9 +1904,10 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1509,9 +1922,10 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="1"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1526,9 +1940,10 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="1"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1543,9 +1958,10 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="1"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1560,9 +1976,10 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1577,9 +1994,10 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="1"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1594,9 +2012,10 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="1"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1611,9 +2030,10 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1628,9 +2048,10 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1645,9 +2066,10 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="1"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1662,9 +2084,901 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87374DDD-D98E-45CD-82ED-836952EBD639}">
+          <x14:formula1>
+            <xm:f>input!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F064084-E5CA-43F6-84C9-D832712E978F}">
+          <x14:formula1>
+            <xm:f>input!$B$1:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4:K40 K2 I2:I40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F7E524-9787-4753-B7B6-948DE97645E8}">
+          <x14:formula1>
+            <xm:f>input!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:H40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CCC0AF0-F234-472B-9419-6B5CE4C1E9CE}">
+          <x14:formula1>
+            <xm:f>input!$B$1:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1679,9 +2993,10 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="1"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1696,9 +3011,10 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="1"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1713,9 +3029,10 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1723,14 +3040,15 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1745,37 +3063,37 @@
           <x14:formula1>
             <xm:f>input!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F43</xm:sqref>
+          <xm:sqref>F2:G43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{173B9FC7-D1C0-4BC9-B942-141EAAC7E903}">
           <x14:formula1>
             <xm:f>input!$B$1:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:I43 J2:O2</xm:sqref>
+          <xm:sqref>I2:J43 K2:P2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6E10E36-6146-42BE-AC2A-326405C48E3F}">
           <x14:formula1>
             <xm:f>input!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J43</xm:sqref>
+          <xm:sqref>K43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE5486A-38C5-42C4-A79B-67E2B27CF71D}">
           <x14:formula1>
             <xm:f>input!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K43</xm:sqref>
+          <xm:sqref>L3:L43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9F34237-43DB-4126-957F-DA8F1BF51574}">
           <x14:formula1>
             <xm:f>input!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G43</xm:sqref>
+          <xm:sqref>H2:H43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3FF9800E-F082-428B-A6BE-C4F1FC00F1A2}">
           <x14:formula1>
             <xm:f>input!$D$1:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J42</xm:sqref>
+          <xm:sqref>K3:K42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4EF5CB3-2B90-4A22-9B97-879F27115F59}">
           <x14:formula1>
@@ -1789,99 +3107,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6637884F-B4B6-4228-B291-1A8F389D8877}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>-3</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330CC40-FAB3-4B0B-AD28-D9301CF16B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759203E-8053-4AB8-8499-1797C95CA35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>pID</t>
   </si>
@@ -134,21 +134,12 @@
     <t>german</t>
   </si>
   <si>
-    <t>item_baseline</t>
-  </si>
-  <si>
     <t>text_baseline</t>
   </si>
   <si>
-    <t>item_passive</t>
-  </si>
-  <si>
     <t>text_passive</t>
   </si>
   <si>
-    <t>item_agency</t>
-  </si>
-  <si>
     <t>text_agency</t>
   </si>
   <si>
@@ -168,6 +159,39 @@
   </si>
   <si>
     <t>it happend sometimes, but sometimes not; I felt pretty much in controll;</t>
+  </si>
+  <si>
+    <t>Ich hatte kein Strom Gefühl; Hätte ich nicht gedrückt, wäre der Ton nicht gekommen.</t>
+  </si>
+  <si>
+    <t>Ich hatte keine Kontrolle ob ich drücke oder nicht; Ich hätte nur mit Anstrengung gegenhalten können</t>
+  </si>
+  <si>
+    <t>Ich hatte noch weniger Einfluss; die Stimulation war oft vor meiner Erwartung; hat sich nicht an die Regeln gehalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mara; Second part of third block did not work (no EMS); in first part of third block, EMS worked but seems like it happened to early. </t>
+  </si>
+  <si>
+    <t>Es war  nicht manipuliert; ich habe ausgewählt wann ich tippe; es war mein inneres Gefühl</t>
+  </si>
+  <si>
+    <t>Ich hatte keine Kontrolle; Das gerät hat für mich gedrückt; ich habe nicht über das Timing entschieden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich wollte etwas machen, aber das Ding hat getippt; Ich hatte keine Kontrolle; Es war frustrierend; Es hat mich irritiert; Ich konnte nicht machen was ich sollte; </t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>agency</t>
   </si>
 </sst>
 </file>
@@ -336,9 +360,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -354,7 +376,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -621,6 +645,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -628,15 +661,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -659,9 +683,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -677,7 +699,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -991,50 +1015,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3781E842-391C-4515-9220-623679F29724}" name="Tabelle13" displayName="Tabelle13" ref="A1:P40" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3781E842-391C-4515-9220-623679F29724}" name="Tabelle13" displayName="Tabelle13" ref="A1:P40" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A1:P40" xr:uid="{3781E842-391C-4515-9220-623679F29724}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{FCC9522A-6C94-43D7-83B4-03F95C940CDD}" name="pID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C390E5F0-49A4-4049-8E63-977FF8DD5583}" name="comments" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{7DE46A29-514D-4795-8A70-53BB141B9BD3}" name="vaild" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{4F80C496-9083-4346-857D-6273DDF84127}" name="cap_size" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A98F4A19-62CE-4A68-9E0B-9B9412578D3B}" name="age" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{B285662B-70D7-4412-9634-C655D2F6FAAF}" name="first_language" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D3079AF4-78C4-4424-BC52-D4BACE441CEF}" name="sex" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{13D4C27F-003A-4155-826E-39CB9D4765A6}" name="gender" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E51D2886-8623-4285-921B-205320B896AD}" name="item_baseline" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FC411175-3DAA-407B-B025-10B0A0590C09}" name="text_baseline" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{72220960-232B-47EB-B2BB-CC5C3ED2C9E4}" name="item_passive" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{D97EE890-F9BD-4FDD-8ACF-33E745753FD9}" name="text_passive" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{27618442-AA2C-4E3B-AA9F-E5D93301C788}" name="item_agency" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{6353A30F-0F0F-43FC-84B7-22CDEAF8D9A8}" name="text_agency" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{C93F8F74-28FE-457C-9F3D-537FED0ABB5B}" name="interview" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{897D179D-0D5A-4D7C-B1EC-7F9F27BB046A}" name="interview_trans" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FCC9522A-6C94-43D7-83B4-03F95C940CDD}" name="pID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{C390E5F0-49A4-4049-8E63-977FF8DD5583}" name="comments" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{7DE46A29-514D-4795-8A70-53BB141B9BD3}" name="vaild" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{4F80C496-9083-4346-857D-6273DDF84127}" name="cap_size" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{A98F4A19-62CE-4A68-9E0B-9B9412578D3B}" name="age" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{B285662B-70D7-4412-9634-C655D2F6FAAF}" name="first_language" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D3079AF4-78C4-4424-BC52-D4BACE441CEF}" name="sex" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{13D4C27F-003A-4155-826E-39CB9D4765A6}" name="gender" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E51D2886-8623-4285-921B-205320B896AD}" name="baseline" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{FC411175-3DAA-407B-B025-10B0A0590C09}" name="text_baseline" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{72220960-232B-47EB-B2BB-CC5C3ED2C9E4}" name="passive" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D97EE890-F9BD-4FDD-8ACF-33E745753FD9}" name="text_passive" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{27618442-AA2C-4E3B-AA9F-E5D93301C788}" name="agency" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{6353A30F-0F0F-43FC-84B7-22CDEAF8D9A8}" name="text_agency" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{C93F8F74-28FE-457C-9F3D-537FED0ABB5B}" name="interview" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{897D179D-0D5A-4D7C-B1EC-7F9F27BB046A}" name="interview_trans" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:P43" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{4DEC96F3-E8F3-4783-ABFE-497A2FF85D5D}" name="first_language" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block_old" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{4DEC96F3-E8F3-4783-ABFE-497A2FF85D5D}" name="first_language" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block_old" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1305,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1353,28 +1377,28 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1404,56 +1428,108 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1">
         <v>-3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="D3" s="1">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="9">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="D4" s="1">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="2"/>
     </row>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759203E-8053-4AB8-8499-1797C95CA35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FC646-3A77-4922-8DE3-0664591F58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11295" yWindow="0" windowWidth="17505" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>pID</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Ich hatte keine Kontrolle ob ich drücke oder nicht; Ich hätte nur mit Anstrengung gegenhalten können</t>
   </si>
   <si>
-    <t>Ich hatte noch weniger Einfluss; die Stimulation war oft vor meiner Erwartung; hat sich nicht an die Regeln gehalten</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mara; Second part of third block did not work (no EMS); in first part of third block, EMS worked but seems like it happened to early. </t>
   </si>
   <si>
@@ -192,6 +189,18 @@
   </si>
   <si>
     <t>agency</t>
+  </si>
+  <si>
+    <t>The timing of stimulation felt random timewise; it probably would have stimulated in cases, where I acted intentionally. Just a little later.; Being moved by the system was easier than moving it with my brain. I was able to focus on the time estimation.; The experience is comparable to fully autonomous driving. In both cases, your body is moving, but you are not really doing anything (hands on steering weehl are being moved).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hatte noch weniger Einfluss.; Die Stimulation war unerwartet.; Die Stimulation war oft vor meiner Erwartung, teilweise sogar bevor das Fixationskreuz weg war. Es hat sich nicht an die Regeln gehalten.  [zu fehlerhaftem Blockteil  3 komplett ohne Stimulation: Das Wissen, dass eine Stimulation im nächten Block passieren könnte, hat mich unsicher fühlen lassen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im ersten Block hat der Interaktionsprototyp nichts gemacht, im zweiten Block hat er regelkonform mit Elektroschocks mein Handeln gelenkt. Im letzen Block(3a) hatte er es eilig, und es wurden noch nichtmal die 3 Sekunden (bis das Fixationskreuz weg war) gewartet. In allen Trials in 3a. In 3b wurde garnicht geschockt. ; Ich finde nichts im Alltag vergleichbar mit der EMS Stimulation hier. Aber die Verwendung von Exsoskeletons stell ich mir ähnlich vor.; Anwendungsbereiche: Bei Lähmungen könnte solch eine Technologie sinnvoll sein. Wenn man die Gehirnströme verwendet, also deren Willen, um dann als Umweg zu den Musklen EMS verwendet. Also wenn die Nervenbahnen nichtmehr funktionieren. Es hat nicht nach den Regeln gespielt heißt, die </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im dritten Block sollte ich warten und selbst tippen, aber in allen Fällen hat das Gerät getippt bevor ich es machen wollte. Das hat mir kein Gefühl von Kontrolle gegeben. ; Das Gerät / die elektrischen Impulse haben wie im zweiten Block das tippen ausgelöst. ; Ich habe schon an das tippen gedacht, oder gerade angefangen zu überlegen ob ich tippen möchte, aber dann ist es schon passiert. ; Generell das Gefühl von EMS / der Bewegung ohne meine Kontrolle ist sehr seltsam.; Eine vergleichbare  Situaion wären zittrige Knie / Lenkassitent im Auto, wenn das Auto probiert mitzulenken. ; Anwendungsfälle, wenn Menschen reagieren müssen - aber dann kann man ja auch direkt die Maschine aktivieren (Notfallbremse) und nicht über den Muskel gehen. </t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -350,12 +359,41 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -684,24 +722,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1032,33 +1052,33 @@
     <tableColumn id="10" xr3:uid="{D97EE890-F9BD-4FDD-8ACF-33E745753FD9}" name="text_passive" dataDxfId="24"/>
     <tableColumn id="11" xr3:uid="{27618442-AA2C-4E3B-AA9F-E5D93301C788}" name="agency" dataDxfId="23"/>
     <tableColumn id="12" xr3:uid="{6353A30F-0F0F-43FC-84B7-22CDEAF8D9A8}" name="text_agency" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{C93F8F74-28FE-457C-9F3D-537FED0ABB5B}" name="interview" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{897D179D-0D5A-4D7C-B1EC-7F9F27BB046A}" name="interview_trans" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{C93F8F74-28FE-457C-9F3D-537FED0ABB5B}" name="interview" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{897D179D-0D5A-4D7C-B1EC-7F9F27BB046A}" name="interview_trans" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}" name="Tabelle1" displayName="Tabelle1" ref="A1:P43" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:P43" xr:uid="{898ACBF7-4D21-4B0A-9A89-8EAC5D324AC9}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{4DEC96F3-E8F3-4783-ABFE-497A2FF85D5D}" name="first_language" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block_old" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7E5B5C79-7639-49FF-A5C0-B637BA4C0D8E}" name="pID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{41AECC35-EB26-4397-9149-6F3197B5A029}" name="comments" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{B3A0E20F-7B2E-4689-8012-78D7097C0A99}" name="vaild" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B972C5BD-835D-4517-9CE0-90D97620E0C7}" name="age" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{4DEC96F3-E8F3-4783-ABFE-497A2FF85D5D}" name="first_language" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E2253D4D-3D7F-4048-9352-DC85256E7A51}" name="sex" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0DE115FF-04B2-4897-90EF-E795A7BBC6E7}" name="gender" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F5769B9E-983D-4F9F-9B29-7F787CE76F6F}" name="first_block_old" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{DE468D1F-28AD-44E2-96E0-083039BB2F4F}" name="control_agency" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{72040056-0B2C-46D2-9ECF-5308D0277E72}" name="control_random" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E8085B4E-D2B7-4C9E-963F-7E35A912A3ED}" name="time_expectation" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{DE959692-669E-4278-B42B-32B082371A92}" name="embodiment" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{59481544-AC36-40FD-A2D4-0261433D07E3}" name="interview_agency" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{C3FD13EB-427E-4C1C-9D1B-D98BCB847AA1}" name="interview_agency_trans" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{A69CD8B8-0723-4AB4-B280-9B54255EB8AF}" name="interview_random" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{167DE025-67DC-4AED-96D2-356E1D1322BC}" name="interview_random_trans" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1367,7 @@
     <col min="11" max="11" width="21.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="72.7109375" style="14" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1377,31 +1397,31 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>4</v>
       </c>
@@ -1442,15 +1462,17 @@
       <c r="N2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -1484,17 +1506,19 @@
         <v>-3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1516,21 +1540,23 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1">
         <v>-2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1">
         <v>-3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1548,7 +1574,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1566,7 +1592,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1584,7 +1610,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1602,7 +1628,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1620,7 +1646,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1638,7 +1664,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1656,7 +1682,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1674,7 +1700,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1692,7 +1718,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1710,7 +1736,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1728,7 +1754,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1746,7 +1772,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1764,7 +1790,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1782,7 +1808,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1800,7 +1826,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1818,7 +1844,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1836,7 +1862,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1854,7 +1880,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1872,7 +1898,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1890,7 +1916,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1908,7 +1934,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1926,7 +1952,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1944,7 +1970,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1962,7 +1988,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1980,7 +2006,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1998,7 +2024,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2016,7 +2042,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2034,7 +2060,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2052,7 +2078,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -2070,7 +2096,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2088,7 +2114,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2106,7 +2132,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2124,7 +2150,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2142,7 +2168,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2160,7 +2186,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2178,7 +2204,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
+      <c r="O40" s="13"/>
       <c r="P40" s="6"/>
     </row>
   </sheetData>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141F71F-0B4D-4A43-A746-5D3ACCA31210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D2E4D4-7C24-4D6F-A370-6CCC452AB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,30 @@
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="data_old" sheetId="1" r:id="rId2"/>
     <sheet name="input" sheetId="2" r:id="rId3"/>
+    <sheet name="thoughts" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>pID</t>
   </si>
@@ -218,12 +230,6 @@
     <t>Carolina</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
     <t>Madina</t>
   </si>
   <si>
@@ -269,16 +275,46 @@
     <t>Vergleichbare Situationenen: Zucken des Augenlides; Bremsen beim autonomen Fahren; Code der durchläuft zugucken, wenn man ihn nicht versteht.</t>
   </si>
   <si>
-    <t>sent; second reminder sent</t>
-  </si>
-  <si>
     <t>Kerstin</t>
   </si>
   <si>
-    <t>contacted on discord</t>
-  </si>
-  <si>
-    <t>rfrf</t>
+    <t>possibles categories</t>
+  </si>
+  <si>
+    <t>positiv</t>
+  </si>
+  <si>
+    <t>negativ</t>
+  </si>
+  <si>
+    <t>&gt; EMS take over experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;  </t>
+  </si>
+  <si>
+    <t>Generelle Diskussion</t>
+  </si>
+  <si>
+    <t>sie sind schneller geworden; assistive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reinfunken; abhalten von Aufgabenerfüllung; disruptive</t>
+  </si>
+  <si>
+    <t>Da der Ablauf fest vorgegeben war, habe ich keien volle Kontrolle empfunden.;, Ich wurrde teilweise ungedudig.; Die Aufgabenstellung hat das Gefühl der Kontrolle eingeschränkt.</t>
+  </si>
+  <si>
+    <t>Es könnte noch gezwungener sein [weil ich hätte gegenarbeiten können], aber ich hab mich auf den elektrischen Impuls verlassen. ; Es war unangenehm, ich hatten einen emotionalen Wiederstand nicht die Kontrolle zu übernehmen. ; Weird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich wusste, dass das EDA angeschlossen ist, und hatte Bedenken, dass es angeht.;. Es ist nur einmal angegangen. ; Generell hatte aber ich die Kontrolle. ; Die Situation hat Unsicherheit in mir ausgelöst. </t>
+  </si>
+  <si>
+    <t>contacted on discord; not yet confirmed</t>
+  </si>
+  <si>
+    <t>Felix; not interview because classifier was not functional</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1521,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>51</v>
@@ -1593,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -1648,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1703,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -1756,28 +1792,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1">
         <v>-3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R5" s="11"/>
       <c r="S5" s="2"/>
@@ -1807,56 +1843,80 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6" s="1">
         <v>-2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1">
         <v>-1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
         <v>54</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="2"/>
     </row>
@@ -1890,13 +1950,15 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>58</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1915,10 +1977,10 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1940,13 +2002,15 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>58</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2052,9 +2116,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3599,10 +3661,10 @@
         <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,10 +3690,10 @@
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3677,6 +3739,58 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4260126-1B91-40ED-8D91-546E8A6790FC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D2E4D4-7C24-4D6F-A370-6CCC452AB106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8872358-2C3D-4BB2-95EE-32ED9CB7549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>pID</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>Felix; not interview because classifier was not functional</t>
+  </si>
+  <si>
+    <t>An sich war es eine freiwillige Bewegung, aber durch die Instruktion zum warten auf den "Bewegungsdrank" habe ich mich in meiner Kontrolle eingeschrenkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man könnte dagegenhalten. Aber wenn ich meinen Finger entspannt gehalten habe, dann hat sich mein Finger unfreiwillig bewegt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein wenig einschüchternd.; Ich habe aktiv gegen das System gearbeitet um die Instruktionen zu erfüllen. ; Es war überraschend, dass das System genadelt hat. ; Ich kann klar zwischen meiner Aktion und der Aktion des Sysems trennen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist immer angesprungen, aber in verschiedenen Stärken. </t>
+  </si>
+  <si>
+    <t>Wegen der I</t>
+  </si>
+  <si>
+    <t>confirmed; no recording; did not like EMS</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1786,9 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>7</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1819,7 +1839,9 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>8</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1872,7 +1894,9 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>9</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1921,7 +1945,9 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>10</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1932,23 +1958,51 @@
       <c r="E8" s="1">
         <v>54</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="11"/>
+      <c r="F8" s="1">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9">
+        <v>11</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -1959,23 +2013,45 @@
       <c r="E9" s="1">
         <v>58</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-3</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="11"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1983,40 +2059,74 @@
         <v>90</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="E10" s="1">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>-2</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="11"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>13</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>58</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="F11" s="1">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8872358-2C3D-4BB2-95EE-32ED9CB7549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910AEC-AE07-423D-B3F1-1DF7775ED1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>pID</t>
   </si>
@@ -333,6 +333,24 @@
   </si>
   <si>
     <t>confirmed; no recording; did not like EMS</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>russisch</t>
+  </si>
+  <si>
+    <t>deutsch</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1557,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,17 +2155,33 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="9">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="F12" s="1">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2158,17 +2192,33 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="9">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="F13" s="1">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2179,11 +2229,17 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="9">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>55</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2200,8 +2256,12 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="9">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84910AEC-AE07-423D-B3F1-1DF7775ED1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA3620-7B24-4025-8880-FBEA44A94480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>pID</t>
   </si>
@@ -326,12 +326,6 @@
     <t xml:space="preserve">Ein wenig einschüchternd.; Ich habe aktiv gegen das System gearbeitet um die Instruktionen zu erfüllen. ; Es war überraschend, dass das System genadelt hat. ; Ich kann klar zwischen meiner Aktion und der Aktion des Sysems trennen. </t>
   </si>
   <si>
-    <t xml:space="preserve">Es ist immer angesprungen, aber in verschiedenen Stärken. </t>
-  </si>
-  <si>
-    <t>Wegen der I</t>
-  </si>
-  <si>
     <t>confirmed; no recording; did not like EMS</t>
   </si>
   <si>
@@ -344,13 +338,91 @@
     <t>Lukas</t>
   </si>
   <si>
-    <t>Marius</t>
-  </si>
-  <si>
     <t>russisch</t>
   </si>
   <si>
     <t>deutsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist immer angesprungen, aber in verschiedenen Stärken. ; Ich habe teilweise aktiv gegen das System gehalten um die Instruktion einzuhalten.; Die Tatigkeiten sind klar trennbar zwischen mir und dem System.; Die EMS Stimulierung was überraschend, weil sie nicht mit der Instruktion übereingestimmt hat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Aufgabenstellung / Instuktion hat dazu geführt, dass ich mich nicht völlig in Kontrolle gefühlt habe.; Ich musste mich im Rahmen der Intruktionen bewegen. </t>
+  </si>
+  <si>
+    <t>Ich hatte keine Kontrolle.; Das war für mich entspannt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich musste es meist selbst machen. </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hab nur einmal was gespürt. ; Generell war ich in Kontrolle.; Ich war unsicher. </t>
+  </si>
+  <si>
+    <t>Ich habe ausgeführt.; Ich habe entschieden wann ich die Bewegung mache. ; Es war kontrollierbar.</t>
+  </si>
+  <si>
+    <t>Ich konnte nicht gegensteuern, wenn der Impuls kam und meinen Finger bewegt hat.; Es hat sich nicht negativ angefühlt, man wusste ja was einen erwartet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich konnte nicht steuern, wann es einsetzt und wann nicht. Ich wollte schneller sein als der Impuls, aber habe es nicht geschafft. ; Die Stimulation ist in ca. 50% der Fälle angegangen. Eher wenn ich länger gewartet habe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich wollte die Stimulierung nicht fühlen.; In einigen Fällen, wenn ich abgewartet habe, kam die Stimulierung mit mit meiner eigenen Bewegung gemeinsam. </t>
+  </si>
+  <si>
+    <t>not confirmed, but worked out</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es war meine Entscheidung.; Ich war die Person die die das Tablet berührt hat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich konnte den Versuch an sich jeder Zeit stoppen oder Wiederstand gegen einzelene Bewegungen halten. Aber Kontrolle über die Bewegung an sich hatte das System. ; Die Kontrollabgabe war angenehm, nachdem man sich einmal an die Stimulation gewöhnt hatte. </t>
+  </si>
+  <si>
+    <t>Ich hatte keine Kontrolle, weil es unvorhersehbar war, ob die Unterstützung auftritt oder nicht. ; Mir ist bewusst, das [die niedrigere Kontrolleinschätzung im Vergleich zu Block 2] irrational ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMS ist ist in ca. 80% der Trials aufgetreten.; Die Zeit [wann im Trial verlauf es aufgetreten ist] hat variiert. ; Es kam nicht immer sofort, wenn ich dann lange gewartet habe, kam es manchmal noch. ; Die Stumulation war unangenehm / nervig. ; Meine Entscheidung wurde mir weggenommen.; Ich habe die Kontrolle verloren, ich wollte sie nicht abgebene, aber sie wurde genommen. ; In wenigen Fällen kam die Stimulation, wenn ic h schon mit der Bewegung  angefangen hatte. Das war dann fast praktisch, und hat mir bei der Ausführung geholfen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich musste [nach Instruktion] auf den Impuls warten, aber ich hatte die Kontrolle über die Bewegung. </t>
+  </si>
+  <si>
+    <t>Ich hätte gegenhalten können, wenn ich gewollt hätte. Aber nur teilweise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendenziell hatte ich in nach Instruktion die Kontrolle, aber oft kam die Stimulation bevor ich den Bewegungsdrang vespürt habe. </t>
+  </si>
+  <si>
+    <t>Stimulation ist in 70-75% der Fälle aufgetreten.; Meine Intention und die Stimulierung haben zeitlich nur sehr selten, ich glaube einmal, übereingestimmt. ; Das Gerät war sehr schnell, die Stimulation hat meist vor meinem Bewegungsimpuls stattgefunden. ;</t>
+  </si>
+  <si>
+    <t>Warten auf eigenen Bewegungsimpuls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Bewegung wurde ausgeführt, weil sich mein Finger durch die Stimulation verkrampt hat. ; Ich hätte aber gegenhalten können. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchmal kam der Schock, manchmal nicht. </t>
+  </si>
+  <si>
+    <t>75%  Stimulierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich konnte den Zeitpunkt eigenständig steuern. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es hat sich vollkommen fremdgesteuert angefühlt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschiedenen Phasen </t>
   </si>
 </sst>
 </file>
@@ -366,12 +438,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -497,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -521,6 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1556,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1990,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>9</v>
       </c>
@@ -1959,10 +2038,12 @@
       <c r="Q7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -2013,7 +2094,7 @@
         <v>94</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="S8" s="2"/>
     </row>
@@ -2053,20 +2134,26 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1">
         <v>-3</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="P9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="11"/>
+      <c r="Q9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>12</v>
       </c>
@@ -2076,7 +2163,9 @@
       <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" s="1">
         <v>54</v>
       </c>
@@ -2101,16 +2190,24 @@
       <c r="L10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N10" s="1">
         <v>-2</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="P10" s="1">
         <v>-1</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="11"/>
+      <c r="Q10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2121,9 +2218,11 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="1">
         <v>58</v>
       </c>
@@ -2154,21 +2253,23 @@
       <c r="R11" s="11"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
@@ -2176,36 +2277,52 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="15" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="11"/>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
@@ -2213,19 +2330,33 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="11"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2233,26 +2364,54 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>55</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="11"/>
+      <c r="F14" s="1">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2260,23 +2419,49 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="F15" s="1">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="2"/>
     </row>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFA3620-7B24-4025-8880-FBEA44A94480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C652F0-5209-4EDC-859B-D6E3E5996BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
   <si>
     <t>pID</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t xml:space="preserve">Verschiedenen Phasen </t>
+  </si>
+  <si>
+    <t>Friederike</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Yiru</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>Lukas?</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,9 +2484,15 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="9">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2487,9 +2511,15 @@
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="9">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2508,9 +2538,15 @@
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="9">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2529,8 +2565,12 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="9">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C652F0-5209-4EDC-859B-D6E3E5996BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062FB37B-799B-4603-BA08-05C18CF0F615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,12 +368,6 @@
     <t>Ich konnte nicht gegensteuern, wenn der Impuls kam und meinen Finger bewegt hat.; Es hat sich nicht negativ angefühlt, man wusste ja was einen erwartet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ich konnte nicht steuern, wann es einsetzt und wann nicht. Ich wollte schneller sein als der Impuls, aber habe es nicht geschafft. ; Die Stimulation ist in ca. 50% der Fälle angegangen. Eher wenn ich länger gewartet habe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich wollte die Stimulierung nicht fühlen.; In einigen Fällen, wenn ich abgewartet habe, kam die Stimulierung mit mit meiner eigenen Bewegung gemeinsam. </t>
-  </si>
-  <si>
     <t>not confirmed, but worked out</t>
   </si>
   <si>
@@ -389,21 +383,12 @@
     <t>Ich hatte keine Kontrolle, weil es unvorhersehbar war, ob die Unterstützung auftritt oder nicht. ; Mir ist bewusst, das [die niedrigere Kontrolleinschätzung im Vergleich zu Block 2] irrational ist.</t>
   </si>
   <si>
-    <t xml:space="preserve">EMS ist ist in ca. 80% der Trials aufgetreten.; Die Zeit [wann im Trial verlauf es aufgetreten ist] hat variiert. ; Es kam nicht immer sofort, wenn ich dann lange gewartet habe, kam es manchmal noch. ; Die Stumulation war unangenehm / nervig. ; Meine Entscheidung wurde mir weggenommen.; Ich habe die Kontrolle verloren, ich wollte sie nicht abgebene, aber sie wurde genommen. ; In wenigen Fällen kam die Stimulation, wenn ic h schon mit der Bewegung  angefangen hatte. Das war dann fast praktisch, und hat mir bei der Ausführung geholfen. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ich musste [nach Instruktion] auf den Impuls warten, aber ich hatte die Kontrolle über die Bewegung. </t>
   </si>
   <si>
     <t>Ich hätte gegenhalten können, wenn ich gewollt hätte. Aber nur teilweise.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tendenziell hatte ich in nach Instruktion die Kontrolle, aber oft kam die Stimulation bevor ich den Bewegungsdrang vespürt habe. </t>
-  </si>
-  <si>
-    <t>Stimulation ist in 70-75% der Fälle aufgetreten.; Meine Intention und die Stimulierung haben zeitlich nur sehr selten, ich glaube einmal, übereingestimmt. ; Das Gerät war sehr schnell, die Stimulation hat meist vor meinem Bewegungsimpuls stattgefunden. ;</t>
-  </si>
-  <si>
     <t>Warten auf eigenen Bewegungsimpuls.</t>
   </si>
   <si>
@@ -413,18 +398,12 @@
     <t xml:space="preserve">Manchmal kam der Schock, manchmal nicht. </t>
   </si>
   <si>
-    <t>75%  Stimulierung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ich konnte den Zeitpunkt eigenständig steuern. </t>
   </si>
   <si>
     <t xml:space="preserve">Es hat sich vollkommen fremdgesteuert angefühlt. </t>
   </si>
   <si>
-    <t xml:space="preserve">Verschiedenen Phasen </t>
-  </si>
-  <si>
     <t>Friederike</t>
   </si>
   <si>
@@ -441,6 +420,27 @@
   </si>
   <si>
     <t>Lukas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich konnte nicht steuern, wann es einsetzt und wann nicht. Ich wollte schneller sein als der Impuls, aber habe es nicht geschafft. ; Die Stimulation ist in ca. 50% der Fälle angegangen. Eher wenn ich länger gewartet habe. // Ich hatte nicht Kontrolle wann es einsetzt, und wann nicht. Ich habe probiert schneller zu sein [als das Gerät], aber es hat nicht geklappt. ; Deshlab hat es sich angefühlt, als hätte ich etwas Kontrolle.; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMS ist ist in ca. 80% der Trials aufgetreten.; Die Zeit [wann im Trial verlauf es aufgetreten ist] hat variiert. ; Es kam nicht immer sofort, wenn ich dann lange gewartet habe, kam es manchmal noch. Also teilweise sind 5-6 Skeunden vergangen und es kam nichtsmehr, dann habe ich selbst geklickt. ; Die Stumulation war unangenehm / nervig wenn es davor kam. Meine Entscheidung wurde mir weggenommen.; Ich habe die Kontrolle verloren, ich wollte sie nicht abgeben, aber sie wurde genommen. ; In wenigen Fällen kam die Stimulation, wenn ic h schon mit der Bewegung  angefangen hatte. Das war dann fast praktisch, und hat mir bei der Ausführung geholfen.  ; Wenn die Stimulierung zu früh kam, konnte ich die Bewegung nicht ausführen. Es wurde dann zwar das Ziel es klicken erfüllt, aber es war nicht angenehm. ; Es war insgesamt sehr relevant, wann genau die Stimulation kam.; Wenn der Zeitpunkt optimal war, dann war es ok die Stimlierung zu erfahren, aber auch nicht mehr als ok. ; Ich glaube, wenn die Stimulierung konstant / reliable kommen würde, dann könnte ich es als positive Stimulierung wahrnehmen. ; Das System könnte [bei hoher Funktionalität und Vertrauen] die Geschwindigkeit erhöhen und bei Unsicherheit helfen. Dafür müsste das System aber sehr Transparenz darüber sein, wann es eingreift. Das ist generell unangenhem.; Ich hab keine Ahnung was die Stimulation gesteuert hat, ich denke es war Zufall wann stimuliert wurde. ; Beispiele: Cookies von Websites, wenn man nicht alles abwählen kann. Es passieren Dinge durch Technik, ohne das man es will. Zum Beispiel auch bei Onlineshops, wenn Adds vor dem gezeigt werden, was man haben will. ; Anwendungsfälle: Bei Menschen mit Einschränkungen, wenn jemand z.B. den Muskel nicht entspannen kann. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impuls ist zu ca. 50% angegenagen, wenn ich länger gewartet habe meistens. Teilweise kam er aber auch sehr schnell. ; Ich glaub er ist eher angegeangen, wenn ich länger gewartet habe - aber ich kann mir nicht erklären wie es technisch funktioniert. ; Meine Empfindung wenn ich versucht habe schneller zu sein als das Gerät, aber es nicht geschafft habe: Es war nicht entspannt wie in Block 2, ich war ich drauf eingestellt. Aber in Block 3 fand ich es unangenehm, ich wollte es nicht spüren. Deshalb habe ich probiert schneller zu sein. Der Impuls  kam dann trotzdem. ; Meine Bewegung war es nur, wenn kein elektrischer Impuls kam. Wenn ich abgewartet habe, war es eher eine gemeinsame Bewegung. Wenn es früh war, war es nur die Aktion des Systems. ; Wenn ich darüber nachdenke, ob mit das System mir geholfen hat [nach Hint], dann nur wenn ich gewartet habe. Wenn es zu früh kam, war es keine Unterstützung. Dann war es unangenhem, schmerzhaft , sehr stark kribbelnd. Auf psychologischer Ebene war es Kontrollverlust , mir wurde die Entscheidung weggenommen. ; Wenn ich mich aktiv entscheide Technologie zu nutzen, möchte ich die Unterstützung - dann finde ich die Unterstützung auch gut. Aber ich muss ich aktiv dazu entschieden haben, damit es ein positives Beispiel ist.; Alltagsbeispiele für Unterstützung: im medizinischen Kontext, wenn ich Einschränkungen in meiner Bewegungsfähigkeit habe // </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendenziell hatte ich in nach Instruktion die Kontrolle, aber oft kam die Stimulation bevor ich den Bewegungsdrang vespürt habe. Ich hätte die Kontrolle gehabt, aber dann wurde sie mir weggenommen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimulation ist in 70-75% der Fälle aufgetreten. In der Mehrheit der Fälle. ; Zeitlich im Verlauf ist die Stimulation einmal gleichzeitig mit meiner Intention aufgetreten, meistens war der Impuls vom Geröt vor meiner Intention da. Teilweise hat es aber auch sehr lange gedauert - dann habe ich die Bewegung irgendwann selbst ausgeführt. , Es war eigentlich eher das eine oder das andere - also ich oder die Stimulierung. ; Der eine Fall als meine Intention und die Stimulation zeitlich aligned waren, war weird / witzig. Also in dem Fall war es im Millisekundenbereich zwischen meiner geplanten Bewegung und der Ausführung. Das hatte ein bisschen was von "vorausgedacht". ; Theoretisch hatten wir das gleiche Ziel, aka den Finger runter drücken, aber ich kann dem Gerät keine Agency zuschreiben. ; Auch in dem Fall würde ich sagen, dass das System meine Bewegung ausgelöst hat, aber ich gleichen Zeitfenster wie ich es wollte. Aber trotzdem kann ich nicht von gemeinsamer Handlung sprechen. Das erinnert mich an  " Principle of Alternative Possibilities (PAP): a person is morally responsible for what she has done only if she could have done otherwise." von Frankfurt. Ich hätte sonst auch gedrückt, aber das Gerät war der Grund warum ich gedrückt habe. ; Damit ich die Handlung als gemeinsame Aktion labeln würde / nicht zuvorkommen nicht benutzen möchte , müsste ich dem Gerät zuvorkommen. Mir fällt es schwer mir eine Situation vorzustellen, in der es nicht einen Hauptakteur gibt. ; Situationen im Alltag in denen zu ähnlich mit einer Technologie zusammen arbeitest / die sich auch "weird " anfühlen / in denen die Kontroll unklar ist: Akku geht leer beim Handy = ich sollte eh nicht soviel am Handy sein. Also praktisch wenn die Technologie mich zu gutem Verhalten "Nuged". ; Hier hatte ich eine Art Konkurrenzdenken mit dem Gerät - wer ist schneller ? Ich oder das Gerät.  / Zur Zeitschätzung: Ich glaube ich war im ersten Block am Besten. Wenn der Impuls vom Gerät kam, war es eine Ausnahmesituation, ich musste dannach kurz nachdenken.  Ich glaube ich war generell sehr inkonsistent in der Einschätzung. Ich glaube alle Intervalle waren im Rahmen einer Sekunde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im dritten Block wurde teilweise getippt, aber nicht in allen Fällen. Ich würde sagen in ca. 75%. ; Es war lustig, wir arbeiten "zusammen" und ich habe direkt einen Schock bekommen. ; Im Zietverlauf hat sich die Stimulation manachmal mit Bewegung überlappt, aber nicht oft. Sonst habe ich einfach gewartet, und dann kam eventell irgenwann die Stimulation.; Wenn es sich überlappt, dann hab ich die Stimulation als weniger aversiv empfunden. Die Bewegung war dann einfach, ich habe weniger Wiederstand geleistet. Ich habe nie probiert Wiederstand zu  leisten, aber ich glaube es war ein wehren gegen den Fremdimpuls. Wenn der Impuls zeitlich mit meiner Bewegungseinleitung passt, dann hatte ich weniger das Gefühl, dass gegen mich gearbeitet wird.; Der Wiederstand löst sich dann auf, wenn die zeitliche Stimulation passt.; Es hat sich aber trotzdem nicht wirklich nach einer Unterstützung angefühlt, weil meine Hautaufgabe für mich war die Zeitabstände zu schätzen, nicht zu tippen. ; Ich weiß nicht ob es Unterschieden zwischen den Blöcken in meiner Zeiteinschätzung gab, ich glaub nicht, dass es mir Kapazitäten abgenommen hat, die ich in die Zeitschätzung investieren konnte. ; Ähnliche Systeme wären Systeme in der menschliche Operatoren sehr unspezifische Aufgaben lösen müssen - nur begrenzt sinnvoll, vllt. für Notbremse etc. ; Ich glaube die Stimulierung war zeitlich random, wenn es gepasst hat, war das Zufall. ; Ähnliche Gefühl bei Interaktion mit Technik: der Reiz ist zu aversiv und die Aufgabe zu langweilig um ähnliche Gefühle in Alltagssituationen zu haben.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hatte verschiedene Phase, wie autonom ich mich in der Bewegung gefühlt habe.  Erst dachte ich, ich hätte noch weniger Autonomieempfinden als in dem ersten Block.  ; Aber nach Gewöhnungsphase wurde es besser.; Wenn Stumlation den Zeitpunkt getroffen hat, und die Unterstützung kam wenn ich den Finger bewegen wollte, dann hat es meine Leistung (Kraft) verstärkt. Aber teilweise war es irritierend, weil die Stimulation nicht immer kam, dann habe ich gewartet, was mein Gefühl von Autonomie gesenkt hat. ; Unterstützung genau wenn ich gerade auch Bewegen wollte kam nur selten, aber wenn war das angenehm. ; Keine Stimulation war auch selten.; Meistens kam der Impuls vorgezogen, ich fand das aber garnicht unangeneh. Ich hab das gerne angenommen. ; Wenn es gepasst hat, hat es mich in meiner Kraft unterstüzt.; Ich hatte in diesen speziellen Momenten das Gefühl, dass wir zusammengearbeitet haben. Aber im Gesamtbild über den Blick nicht.; Wenn der Reiz zu früh kam, hab ich die Kontrolle abgegeben, ich habe garnicht probiert die Bewegung selbst auszulösen. Das hat mich etwas etwas von der Aufgabe distanziert. ; Die Automation war mir übergestellt, es war im gesamten keine Kooperation. ; Beispiele in der Technik und Mensch zusammenarbeiten, in der Ähnliches Gefühl der Unterstützung entseht - LLM fühlt sich aber für mich anderes an, also wenn mir ein Wort vorgeschlagen wird. Es hat sehr stark in mein System eingegriffen, dass kenn ich nicht von anderen Technologien. Ein Beispiel wäre vllt. E-Bikes, wenn die mir Kraft abnehmen. ; Sinnvolle Anwendungsfälle: Ich dachte erst an Handwerk, aber da kann man auch einfach Robotik nehmen. Ich glaube in der Rehabilitation könnte es sinnvolle Anwendungsfälle geben. ; Es hat bei mir aber kein Gefühl von "mein Körper kann etwas mehr als sonst" ausgelöst, auch nicht wenn die Stimulierung zeitlich gepasst hast. ; Zeitschätzung: Mir ist kein Muster in den Intervallen aufgefallen. Vllt. 5 oder weniger Kategorien. Ich glaube ich war am Anfang am schlechtens, und im zweiten am Besten. Ich glaube, wenn ich selber getippt habe, kam mir die Stimulierung immer kürzer vor.  ; Im 3. Block ist das EMS ranmoisiert ausgelöst worden, ich hatte nicht das Gefühl, dass meine eigenen Aktivität die Stimulierung gesteiert hat. </t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1672,7 @@
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" customWidth="1"/>
     <col min="16" max="17" width="22.7109375" customWidth="1"/>
-    <col min="18" max="18" width="72.7109375" style="14" customWidth="1"/>
+    <col min="18" max="18" width="122.5703125" style="14" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1735,7 +1735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>5</v>
       </c>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>6</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>8</v>
       </c>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>9</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>10</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>12</v>
       </c>
@@ -2221,10 +2221,10 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -2271,7 +2271,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>14</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2305,26 +2305,26 @@
         <v>3</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N12" s="1">
         <v>-2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P12" s="1">
         <v>-3</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>15</v>
       </c>
@@ -2358,26 +2358,26 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N13" s="1">
         <v>-2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>16</v>
       </c>
@@ -2413,22 +2413,22 @@
         <v>3</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N14" s="1">
         <v>-2</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P14" s="1">
         <v>-1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="S14" s="2"/>
     </row>
@@ -2437,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -2466,19 +2466,19 @@
         <v>3</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N15" s="1">
         <v>-3</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P15" s="1">
         <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="R15" s="11"/>
       <c r="S15" s="2"/>
@@ -2488,13 +2488,15 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>54</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2515,10 +2517,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2542,13 +2544,15 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>56</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2569,7 +2573,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3011,8 +3015,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062FB37B-799B-4603-BA08-05C18CF0F615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7308519-DA1B-4A1C-B944-D1CE8683D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7308519-DA1B-4A1C-B944-D1CE8683D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA7C86-7CD2-4C29-8230-A9C86CBDC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
   <si>
     <t>pID</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ich hatte verschiedene Phase, wie autonom ich mich in der Bewegung gefühlt habe.  Erst dachte ich, ich hätte noch weniger Autonomieempfinden als in dem ersten Block.  ; Aber nach Gewöhnungsphase wurde es besser.; Wenn Stumlation den Zeitpunkt getroffen hat, und die Unterstützung kam wenn ich den Finger bewegen wollte, dann hat es meine Leistung (Kraft) verstärkt. Aber teilweise war es irritierend, weil die Stimulation nicht immer kam, dann habe ich gewartet, was mein Gefühl von Autonomie gesenkt hat. ; Unterstützung genau wenn ich gerade auch Bewegen wollte kam nur selten, aber wenn war das angenehm. ; Keine Stimulation war auch selten.; Meistens kam der Impuls vorgezogen, ich fand das aber garnicht unangeneh. Ich hab das gerne angenommen. ; Wenn es gepasst hat, hat es mich in meiner Kraft unterstüzt.; Ich hatte in diesen speziellen Momenten das Gefühl, dass wir zusammengearbeitet haben. Aber im Gesamtbild über den Blick nicht.; Wenn der Reiz zu früh kam, hab ich die Kontrolle abgegeben, ich habe garnicht probiert die Bewegung selbst auszulösen. Das hat mich etwas etwas von der Aufgabe distanziert. ; Die Automation war mir übergestellt, es war im gesamten keine Kooperation. ; Beispiele in der Technik und Mensch zusammenarbeiten, in der Ähnliches Gefühl der Unterstützung entseht - LLM fühlt sich aber für mich anderes an, also wenn mir ein Wort vorgeschlagen wird. Es hat sehr stark in mein System eingegriffen, dass kenn ich nicht von anderen Technologien. Ein Beispiel wäre vllt. E-Bikes, wenn die mir Kraft abnehmen. ; Sinnvolle Anwendungsfälle: Ich dachte erst an Handwerk, aber da kann man auch einfach Robotik nehmen. Ich glaube in der Rehabilitation könnte es sinnvolle Anwendungsfälle geben. ; Es hat bei mir aber kein Gefühl von "mein Körper kann etwas mehr als sonst" ausgelöst, auch nicht wenn die Stimulierung zeitlich gepasst hast. ; Zeitschätzung: Mir ist kein Muster in den Intervallen aufgefallen. Vllt. 5 oder weniger Kategorien. Ich glaube ich war am Anfang am schlechtens, und im zweiten am Besten. Ich glaube, wenn ich selber getippt habe, kam mir die Stimulierung immer kürzer vor.  ; Im 3. Block ist das EMS ranmoisiert ausgelöst worden, ich hatte nicht das Gefühl, dass meine eigenen Aktivität die Stimulierung gesteiert hat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilweise hat ein Refelx die bewegung ausgelöst.; Ich bin mir nicht sicher, ob das ich oder die Elektroden waren. Teilweise hatte ich das Gefühl mein Finger wollte tippen, nicht mein Kopf. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hätte schon wann anderes klicken können, aber das Gerät hat entschieden wann ich klicke. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Finger hat sich bewegt, wenn er stimuliert wurde. </t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,18 +2506,42 @@
       <c r="E16" s="1">
         <v>54</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-3</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="2"/>
     </row>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA7C86-7CD2-4C29-8230-A9C86CBDC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6B2A6-81AE-4747-9487-E054D517B101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="0" windowWidth="20700" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="150">
   <si>
     <t>pID</t>
   </si>
@@ -440,16 +440,55 @@
     <t xml:space="preserve">Im dritten Block wurde teilweise getippt, aber nicht in allen Fällen. Ich würde sagen in ca. 75%. ; Es war lustig, wir arbeiten "zusammen" und ich habe direkt einen Schock bekommen. ; Im Zietverlauf hat sich die Stimulation manachmal mit Bewegung überlappt, aber nicht oft. Sonst habe ich einfach gewartet, und dann kam eventell irgenwann die Stimulation.; Wenn es sich überlappt, dann hab ich die Stimulation als weniger aversiv empfunden. Die Bewegung war dann einfach, ich habe weniger Wiederstand geleistet. Ich habe nie probiert Wiederstand zu  leisten, aber ich glaube es war ein wehren gegen den Fremdimpuls. Wenn der Impuls zeitlich mit meiner Bewegungseinleitung passt, dann hatte ich weniger das Gefühl, dass gegen mich gearbeitet wird.; Der Wiederstand löst sich dann auf, wenn die zeitliche Stimulation passt.; Es hat sich aber trotzdem nicht wirklich nach einer Unterstützung angefühlt, weil meine Hautaufgabe für mich war die Zeitabstände zu schätzen, nicht zu tippen. ; Ich weiß nicht ob es Unterschieden zwischen den Blöcken in meiner Zeiteinschätzung gab, ich glaub nicht, dass es mir Kapazitäten abgenommen hat, die ich in die Zeitschätzung investieren konnte. ; Ähnliche Systeme wären Systeme in der menschliche Operatoren sehr unspezifische Aufgaben lösen müssen - nur begrenzt sinnvoll, vllt. für Notbremse etc. ; Ich glaube die Stimulierung war zeitlich random, wenn es gepasst hat, war das Zufall. ; Ähnliche Gefühl bei Interaktion mit Technik: der Reiz ist zu aversiv und die Aufgabe zu langweilig um ähnliche Gefühle in Alltagssituationen zu haben.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ich hatte verschiedene Phase, wie autonom ich mich in der Bewegung gefühlt habe.  Erst dachte ich, ich hätte noch weniger Autonomieempfinden als in dem ersten Block.  ; Aber nach Gewöhnungsphase wurde es besser.; Wenn Stumlation den Zeitpunkt getroffen hat, und die Unterstützung kam wenn ich den Finger bewegen wollte, dann hat es meine Leistung (Kraft) verstärkt. Aber teilweise war es irritierend, weil die Stimulation nicht immer kam, dann habe ich gewartet, was mein Gefühl von Autonomie gesenkt hat. ; Unterstützung genau wenn ich gerade auch Bewegen wollte kam nur selten, aber wenn war das angenehm. ; Keine Stimulation war auch selten.; Meistens kam der Impuls vorgezogen, ich fand das aber garnicht unangeneh. Ich hab das gerne angenommen. ; Wenn es gepasst hat, hat es mich in meiner Kraft unterstüzt.; Ich hatte in diesen speziellen Momenten das Gefühl, dass wir zusammengearbeitet haben. Aber im Gesamtbild über den Blick nicht.; Wenn der Reiz zu früh kam, hab ich die Kontrolle abgegeben, ich habe garnicht probiert die Bewegung selbst auszulösen. Das hat mich etwas etwas von der Aufgabe distanziert. ; Die Automation war mir übergestellt, es war im gesamten keine Kooperation. ; Beispiele in der Technik und Mensch zusammenarbeiten, in der Ähnliches Gefühl der Unterstützung entseht - LLM fühlt sich aber für mich anderes an, also wenn mir ein Wort vorgeschlagen wird. Es hat sehr stark in mein System eingegriffen, dass kenn ich nicht von anderen Technologien. Ein Beispiel wäre vllt. E-Bikes, wenn die mir Kraft abnehmen. ; Sinnvolle Anwendungsfälle: Ich dachte erst an Handwerk, aber da kann man auch einfach Robotik nehmen. Ich glaube in der Rehabilitation könnte es sinnvolle Anwendungsfälle geben. ; Es hat bei mir aber kein Gefühl von "mein Körper kann etwas mehr als sonst" ausgelöst, auch nicht wenn die Stimulierung zeitlich gepasst hast. ; Zeitschätzung: Mir ist kein Muster in den Intervallen aufgefallen. Vllt. 5 oder weniger Kategorien. Ich glaube ich war am Anfang am schlechtens, und im zweiten am Besten. Ich glaube, wenn ich selber getippt habe, kam mir die Stimulierung immer kürzer vor.  ; Im 3. Block ist das EMS ranmoisiert ausgelöst worden, ich hatte nicht das Gefühl, dass meine eigenen Aktivität die Stimulierung gesteiert hat. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Teilweise hat ein Refelx die bewegung ausgelöst.; Ich bin mir nicht sicher, ob das ich oder die Elektroden waren. Teilweise hatte ich das Gefühl mein Finger wollte tippen, nicht mein Kopf. </t>
   </si>
   <si>
     <t xml:space="preserve">Ich hätte schon wann anderes klicken können, aber das Gerät hat entschieden wann ich klicke. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mein Finger hat sich bewegt, wenn er stimuliert wurde. </t>
+    <t xml:space="preserve">Mein Finger hat sich bewegt, wenn er stimuliert wurde. Aber ich hätte ihn [zu Zeitpunkten] bewegen können, in denne er nicht bewegt wurden. Es war eigentlich nicht garkeine Kontrolle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im ersten Block hab ich mir wahrscheinlich nur eingebildet, dass mein Finger bewegt wurde. ; Im dritten Block wurde mein Finger in fast allen Trials bewegt, teilweise war die Stimulierung nicht stark genug. Dann hab ich selber gedrückt. ; Meistens kam die Stimulierung schnell, aber teilweise hab ich auch bis zu 20 sec gewartet.; Ich hab nochmal gedrückt, wenn die Stimulierung nicht stark genug war um meinen Finger zu bewegen.; Im Vergleich zwischen zweitem und dritten Block, hatte ich das Gefühl, dass die Stimulierung im 3. Block weniger stark war. Im dirtten musste ich teilweise selber nachhelfen [Achtung, EMS Elektrode war nicht ganz fest am Ende vom 3. Block - könnte auch der Grund sein].; Mir fallen keine vergleichbaren MMI ein. ; Zeitschätzung: Ich glaube je stärker die Stimulierung desto besser konnte ich schätzen.; Ich habe kein Muster erkannt, obwohl vllt. waren ein paar länger ( = 2 Stufen);  Note: Probandin hat im 3. Block nicht nach Bewegungsintention gehandelt, sondern auf Stimulierung gewartet. Dementsprechend ist Interview  / Ergebnis nur bedingt sinnvoll. </t>
+  </si>
+  <si>
+    <t>confirmed; did not really follow</t>
+  </si>
+  <si>
+    <t>Ich habe selbst entschieden, wie doll, ob, und wann ich [auf das Tablet] drücke.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Finger wurde bewegt, ich konnte nicht entscheiden wie lange und wann ich den Finger bewege. Ich habe ein starkes Kribblen gefühlt. ; Kontrollverlust.; Am Anfang dachte ich [die Stimulierung] tut weh, aber ich glaube ich habe den Kontrollverlsut als  Schmerz / unangenhem interpretiert.; Es war ein seltsames Gefühl. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe entschieden meine Hand zu bewegen, darauf hin hat sie sich bewegt, daruafhin hat sie sich bewegt. Sonst hätte sie sich nicht bewegt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Finger / Meine Hand hat sich bewegt, ohne dass ich entschieden habe sie zu bewegen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilweise hab ich meine Hand selber bewegt, teilweise ohne das ich es wollte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe mich entschieden, wann ich den Ringfinger bewege. Abgesehen davon, dass ich mich an die Instruktion gehalten habe, hatte ich die Kontrolle. Ich hab mich auf das Experiment eingelassen. </t>
+  </si>
+  <si>
+    <t>Ich hätte es kontrollieren können, wenn ich mich angesträngt hätte. Hätte ich die Muskeln angespannt, hätte ich die Kontrolle gehabt.; Aber ich hab mich auf das Experiment eingelassen.</t>
+  </si>
+  <si>
+    <t>Ich wollte immer schneller drücken können als der Impuls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hatte verschiedene Phase, wie autonom ich mich in der Bewegung gefühlt habe.  Erst dachte ich, ich hätte noch weniger Autonomieempfinden als in dem ersten Block.  ; Aber nach Gewöhnungsphase wurde es besser.; Wenn Stumlation den Zeitpunkt getroffen hat, und die Unterstützung kam wenn ich den Finger bewegen wollte, dann hat es meine Leistung (Kraft) verstärkt. Aber teilweise war es irritierend, weil die Stimulation nicht immer kam, dann habe ich gewartet, was mein Gefühl von Autonomie gesenkt hat. ; Unterstützung genau wenn ich gerade auch Bewegen wollte kam nur selten, aber wenn war das angenehm. ; Keine Stimulation war auch selten.; Meistens kam der Impuls vorgezogen, ich fand das aber garnicht unangeneh. Ich hab das gerne angenommen. ; Wenn es gepasst hat, hat es mich in meiner Kraft unterstüzt.; Ich hatte in diesen speziellen Momenten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschied zwischen zweitem und dritten Block - im zweiten durfte ich nichts machen / sollte auf den Impuls warten. Im dritten durfte ich selbst touchen, musste mich aber an einen Zeitrahmen halten. Es war ein Zusammenspiel. Ich war mehr dabei im dritten Block.; Die Stimulierung ist im dritten Block ca. 85% angegangen.; Im Zeitverlauf im dritten Block, wenn ich den Finger bewegt habe, war es etwas schneller, bzw. wenn der Impuls nicht gekommen ist, habe ich nicht zulange gewartet sondern nach 2-3 Sekunden selbst gedrückt. Das hat es für mich etwas stressiger gemacht.; Im dritten Block, ist das Kreuz erlischt, hab gedacht ich möchte drücken, und hab gedrückt, wenn das Gerät mir keinen Impuls gegeben habe ich selbst gedrückt. Oft kam mir der Impuls zuvor, während ich auf den inneren Impuls von mir gewartet habe.; Der Impuls des Geräts kam dann meinem Impuls zu drücken zuvor. ; Ich habe mich an die Regel gehalten, und regelkonform gewartet nachdem das Kreuz wegegangen ist. Das Gerät hat sich nicht an die Spielregeln gehalten.; In 3 Fällen ist es passiert, dass meine Intention zu drücken und der Impuls des Geräts zeitgleich passiert sind. --&gt; hier war habe ich ein leichtes Erfolgserlebnis gespürt, als wäre das der Sinn davon. Aber im Vergleich zu keinem Impus von außen, war es immernoch unangenehem.; Ich glaube meine Leistung war beim "zeitgleichen Tippen" fester. ; Generell wenn das Gerät gedrückt hat, war das Drücken fester und Länger. ; Ich glaube die Stimulierung im 3. Block wurde willkürlich ausgelöst. Ich habe mich gefragt, ob ich es steuere - zum Beispiel durch meine Eingaben, aber habe kein erkennbares Muster gesehen. Ich habe es als von außen / als wäre es programmiert wahrgenommen. ; Zeitschätzung: Ich glaube ich war im letzen Block am schlechtesten, und im ersten am Besten. ; Mir ist kein Muster in den Zeitintervallen aufgefallen, aber ich glaube schon, dass es wirklich unterschiedliche Abstände waren. Also kontinuierlich. ; Anwendungsbeispiele: Situationen in denen man feste drücken soll, z.B. bei Menschen mit Einschränkungen - weil man weniger " Signal im Kopf" produzieren muss, aber es trotzdem zu Einschränkungen kommt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im zweiten Block hab ich abegschaltet, und habe das Gerät machen lassen. Ich hatte nicht das Gefühl irgendwas mit der Bewegung zu tun zu haben. ;  Im dritten Block habe ich in 50 der Zeit selbstständig bewegt, ansonsten war es echt teilweise so, das sich das überschnitten hat. Also dass ich gerade angefangen habe zu bewegen, und dann das Gerät für mich gemacht hat. ; Es gab aber auch einen Teil, in dem das Gerät meinen Finger praktisch ohne meine Zustimmung bewegt hat. Ich hatte aber trotzdem imdamit beschäftigt es selbst steuern zu wollen. Prozentual 25% garnicht stimuliert, 30% einfach so; 40% überschneident.; Bei Überschneidung - ich habe entschieden, ok jetzt klicke ich, dann hab ich gemerkt dass der Strom im Arm ankommt und anfängt den Finger zu bewegen. Das hat sich dann aber schon irgendwie noch so angefühlt, als ob ich  meinen Finger selbst steuern würde. ; Ich glaube, dass die Stimulation im dritten Block teilweise unwillkürlich war, aber teilweise auch, als würde sie meinem Entschluss / meiner Entscheidung folgen. ; Ich habe in den Fällen entschiedden zu klicken, aber das System hat die Bewegung erledigt. ; ich würde dem zustimmen, dass mich das System unterstütz hat. ; Meine Leistung war beeinflusst durch das System, es hat meine Tipp-Leistung gesteigert. Es hat sich leichter angefühlt es das System machen zu lassen. ; Andere vergleichbare Situationen - beim Kochen, wenn ein Mixer für mich das Rühren übernimmt. Aber da bewegt das System nicht meinen Körper. ; Ich glaube, dass die "Unterstützung" durch die Technologie für mich nur positiv, / ok war, weil es eine kleine Bewegung war, und ich immer wusste, dass ich sie beenden könnte. Sonst wär es schon komisch. Aber, man hat sich auch irgendwie sehr schnell dran gewöhnt. ; Zeitschätzung: Ich glaube ich war beim letzen am schlechtesten. Es hat mich abgelenkt, ich wurde teilweise überrascht.  Im zweiten am Besten, weil ich mich auf die Zeitschätzung kontrolliert wurde. ; Ich habe kein Muster in der Zeitschätzung erkannt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Hälfte der Zeit kam kein Buzz, dann habe ich selbst bestimmt wann ich meinen Finger bewegt habe.  Der Teil wo ich keine kontrolle hatte war, wenn mein Finger bewegt wurde, bevor ich es wollte. Das war befremdlich. Es gab ein paar Trials, bei denen ich die Intention hatte, und dann kam der Buzz als ich die Intention hatte, bevor ich die Chance hatte meien Finger zu bewegen. Das war ganz cool. Das hat sich dann auch eher nach Kontrolle angefühlt. Aber generell ist der Buzz zu stark, damit es sich nach kompletter Kontrolle anfühlt. Wenn sich nur mein Finger bewegen würde, würde ich es eher als volle Kontrolle bezeichenen. ; 50% selbst; 15% Zusammen, Rest- Selbst.; Zeitlich Abfolge bei Zusammen: Am Anfang hab ich auf meine Finger geachtet, und dann haben wir den Finger zusammen bewegt. Irgednwann hab ich mich dann mehr auf meine Intention [statt auf die Bewegung] konzentriert. Dann hat sich der Finger "ohne mich" bewegt. Ich glaube das hatte Auswirkungen auf meine Antwortzeiten. ; In den stimulierten Trials, hab ich den Finger auf jeden Fall länger drauf gelassen habe. Aber für den moment in dem ich angefangen habe meine Finger / das Gerät meinen Finger zu bewegen ist es schwierig zu trennen ob das ich oder das Gerät war. ; Ich bin überrascht, dass sich das so "eingrifflich" anfühlt, dass mein Finger bewegt wird. Aber ich glaube das liegt auch an der Stimulation am Arm. Also weil sonst die Bewegung ja nicht im Arm anfängt. Das war nicht super angenehm, und hat zu Distanz geführt. Die Kopplung von dem unangenehmen gefühl und dem Kontrollverlust war schon irgendwie negativ, aber wenn es gleichzeitig mit meiner Intention passiert ist war es weniger negativ.; Es gab momente, in denen ich darüber nachgedacht habe, ob meine Gehirnwellen die Stimulierung steuern. Weil es ja schon großer Zufall wäre, wenn sie gleichzeitig kommen sonst. Aber ich glaube nicht, dass das der Fall ist. Aber hätte ich keine Ahnung, würde ich Intention als Grund nennen. ; Im zweiten Block war völlig random wann die Stimulierung kam. ; Im ersten und zweiten Block, glaube ich, dass nur gegen Ende des Blocks auch mal längere Trials da waren.; Beispiele: Handy vibration beim Tippen find ich ganz angenehem. ChatGPT vibriert beim "denken", das find ich auch ganz cool. ;  Nutzungszenarien: vllt. beim Klavierspielen um lautere Töne zu erzeugen, aber leisere Töne wären dann schwer. ; Muster in der Zeitschätzung:  Ich glaube es war sehr homogen.; Ich glaube ich war im ersten Block am Besten. In den anderen Blöcken hat es auch meine Wahrnehmung verzerrt, weil der Finger bei Stimulierung länger auf dem Tablet war. </t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1793,9 @@
       <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="1">
         <v>56</v>
       </c>
@@ -1809,7 +1850,9 @@
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="1">
         <v>56</v>
       </c>
@@ -1864,7 +1907,9 @@
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="1">
         <v>56</v>
       </c>
@@ -1919,7 +1964,9 @@
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="1">
         <v>58</v>
       </c>
@@ -1972,7 +2019,9 @@
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="1">
         <v>54</v>
       </c>
@@ -2025,7 +2074,9 @@
         <v>67</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="1">
         <v>54</v>
       </c>
@@ -2080,7 +2131,9 @@
       <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="1">
         <v>54</v>
       </c>
@@ -2135,7 +2188,9 @@
       <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="1">
         <v>58</v>
       </c>
@@ -2290,7 +2345,9 @@
       <c r="C12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>28</v>
@@ -2343,7 +2400,9 @@
       <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>25</v>
@@ -2396,7 +2455,9 @@
       <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="1">
         <v>55</v>
       </c>
@@ -2451,7 +2512,9 @@
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>29</v>
@@ -2487,12 +2550,12 @@
         <v>2</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="R15" s="11"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>18</v>
       </c>
@@ -2500,9 +2563,11 @@
         <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="1">
         <v>54</v>
       </c>
@@ -2528,24 +2593,26 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="1">
         <v>-3</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P16" s="1">
         <v>-3</v>
       </c>
       <c r="Q16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R16" s="11"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>19</v>
       </c>
@@ -2555,24 +2622,54 @@
       <c r="C17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="11"/>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="240" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>20</v>
       </c>
@@ -2582,23 +2679,51 @@
       <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="1">
         <v>56</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="11"/>
+      <c r="F18" s="1">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2610,19 +2735,45 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="E19" s="1">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-3</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="R19" s="11"/>
       <c r="S19" s="2"/>
     </row>
@@ -3073,12 +3224,6 @@
           </x14:formula1>
           <xm:sqref>D2:D39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F7E524-9787-4753-B7B6-948DE97645E8}">
-          <x14:formula1>
-            <xm:f>input!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:I39</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CCC0AF0-F234-472B-9419-6B5CE4C1E9CE}">
           <x14:formula1>
             <xm:f>input!$B$1:$B$7</xm:f>
@@ -3090,6 +3235,12 @@
             <xm:f>input!$H$1:$H$3</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4F7E524-9787-4753-B7B6-948DE97645E8}">
+          <x14:formula1>
+            <xm:f>input!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:I16 H17 H18:I39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/study/questionaire.xlsx
+++ b/data/study/questionaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terfu\Desktop\2021-fastReach\data\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6B2A6-81AE-4747-9487-E054D517B101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A854DC8B-4E95-4BF6-AA7C-4A6AA32D0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="0" windowWidth="20700" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
   <si>
     <t>pID</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">Die Hälfte der Zeit kam kein Buzz, dann habe ich selbst bestimmt wann ich meinen Finger bewegt habe.  Der Teil wo ich keine kontrolle hatte war, wenn mein Finger bewegt wurde, bevor ich es wollte. Das war befremdlich. Es gab ein paar Trials, bei denen ich die Intention hatte, und dann kam der Buzz als ich die Intention hatte, bevor ich die Chance hatte meien Finger zu bewegen. Das war ganz cool. Das hat sich dann auch eher nach Kontrolle angefühlt. Aber generell ist der Buzz zu stark, damit es sich nach kompletter Kontrolle anfühlt. Wenn sich nur mein Finger bewegen würde, würde ich es eher als volle Kontrolle bezeichenen. ; 50% selbst; 15% Zusammen, Rest- Selbst.; Zeitlich Abfolge bei Zusammen: Am Anfang hab ich auf meine Finger geachtet, und dann haben wir den Finger zusammen bewegt. Irgednwann hab ich mich dann mehr auf meine Intention [statt auf die Bewegung] konzentriert. Dann hat sich der Finger "ohne mich" bewegt. Ich glaube das hatte Auswirkungen auf meine Antwortzeiten. ; In den stimulierten Trials, hab ich den Finger auf jeden Fall länger drauf gelassen habe. Aber für den moment in dem ich angefangen habe meine Finger / das Gerät meinen Finger zu bewegen ist es schwierig zu trennen ob das ich oder das Gerät war. ; Ich bin überrascht, dass sich das so "eingrifflich" anfühlt, dass mein Finger bewegt wird. Aber ich glaube das liegt auch an der Stimulation am Arm. Also weil sonst die Bewegung ja nicht im Arm anfängt. Das war nicht super angenehm, und hat zu Distanz geführt. Die Kopplung von dem unangenehmen gefühl und dem Kontrollverlust war schon irgendwie negativ, aber wenn es gleichzeitig mit meiner Intention passiert ist war es weniger negativ.; Es gab momente, in denen ich darüber nachgedacht habe, ob meine Gehirnwellen die Stimulierung steuern. Weil es ja schon großer Zufall wäre, wenn sie gleichzeitig kommen sonst. Aber ich glaube nicht, dass das der Fall ist. Aber hätte ich keine Ahnung, würde ich Intention als Grund nennen. ; Im zweiten Block war völlig random wann die Stimulierung kam. ; Im ersten und zweiten Block, glaube ich, dass nur gegen Ende des Blocks auch mal längere Trials da waren.; Beispiele: Handy vibration beim Tippen find ich ganz angenehem. ChatGPT vibriert beim "denken", das find ich auch ganz cool. ;  Nutzungszenarien: vllt. beim Klavierspielen um lautere Töne zu erzeugen, aber leisere Töne wären dann schwer. ; Muster in der Zeitschätzung:  Ich glaube es war sehr homogen.; Ich glaube ich war im ersten Block am Besten. In den anderen Blöcken hat es auch meine Wahrnehmung verzerrt, weil der Finger bei Stimulierung länger auf dem Tablet war. </t>
+  </si>
+  <si>
+    <t>confirmed; check - not sure if money or vp</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -666,6 +675,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1701,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B57C1C4-90EB-4FAA-B01F-C85005A263D9}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P17" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,8 +2371,8 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>66</v>
+      <c r="J12" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>69</v>
@@ -2398,7 +2408,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -2416,8 +2426,8 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>66</v>
+      <c r="J13" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>69</v>
